--- a/src/test/resources/excel/TestData.xlsx
+++ b/src/test/resources/excel/TestData.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13605" windowHeight="1620"/>
   </bookViews>
   <sheets>
-    <sheet name="AddCustTest" sheetId="1" r:id="rId1"/>
+    <sheet name="AddCustTest1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -365,7 +365,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
